--- a/RúbricaDeEvaluación.xlsx
+++ b/RúbricaDeEvaluación.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\juaco\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\juaco\Documents\AREP\Tarea 1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D40E863E-DC93-45B4-AA74-7AD2F7C29D0A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94CC9445-D823-4BB4-A45E-00C44797EB28}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{30389B9F-C7D3-A542-9567-157FC0B6A65B}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="49">
   <si>
     <t>Diseño</t>
   </si>
@@ -174,13 +174,19 @@
   </si>
   <si>
     <t>ORTIZ MEDINA JUAN CAMILO</t>
+  </si>
+  <si>
+    <t>https://github.com/Wasawsky/Arq_Emp_Taller1</t>
+  </si>
+  <si>
+    <t>Reparar los links que abren en archivo LaTeX en el README y añadir el diagrama de clases completo.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -192,6 +198,14 @@
       <b/>
       <sz val="12"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -211,32 +225,12 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="2">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -255,27 +249,37 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -591,99 +595,105 @@
   <dimension ref="A3:D55"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="66.796875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="42.3984375" customWidth="1"/>
+    <col min="2" max="2" width="93.59765625" customWidth="1"/>
     <col min="3" max="3" width="23.796875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A3" s="1" t="s">
+      <c r="A3" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="B3" s="3"/>
-      <c r="C3" s="3"/>
-      <c r="D3" s="3"/>
+      <c r="B3" s="7">
+        <v>44057</v>
+      </c>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1"/>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A4" s="1" t="s">
+      <c r="A4" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="B4" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="C4" s="4"/>
-      <c r="D4" s="4"/>
+      <c r="C4" s="1"/>
+      <c r="D4" s="1"/>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A5" s="1" t="s">
+      <c r="A5" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="B5" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="C5" s="4"/>
-      <c r="D5" s="4"/>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1"/>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A6" s="1" t="s">
+      <c r="A6" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="B6" s="4"/>
-      <c r="C6" s="4"/>
-      <c r="D6" s="4"/>
+      <c r="B6" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1"/>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A7" s="1" t="s">
+      <c r="A7" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="B7" s="4"/>
-      <c r="C7" s="4"/>
-      <c r="D7" s="4"/>
+      <c r="B7" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C7" s="1"/>
+      <c r="D7" s="1"/>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A8" s="3"/>
-      <c r="B8" s="3"/>
-      <c r="C8" s="3"/>
-      <c r="D8" s="3"/>
+      <c r="A8" s="1"/>
+      <c r="B8" s="1"/>
+      <c r="C8" s="1"/>
+      <c r="D8" s="1"/>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A9" s="4"/>
-      <c r="B9" s="4"/>
-      <c r="C9" s="4"/>
-      <c r="D9" s="4"/>
+      <c r="A9" s="1"/>
+      <c r="B9" s="1"/>
+      <c r="C9" s="1"/>
+      <c r="D9" s="1"/>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A10" s="2"/>
-      <c r="B10" s="2"/>
-      <c r="C10" s="2"/>
-      <c r="D10" s="2"/>
+      <c r="A10" s="1"/>
+      <c r="B10" s="1"/>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1"/>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A11" s="2"/>
-      <c r="B11" s="2"/>
-      <c r="C11" s="2"/>
-      <c r="D11" s="2"/>
+      <c r="A11" s="1"/>
+      <c r="B11" s="1"/>
+      <c r="C11" s="1"/>
+      <c r="D11" s="1"/>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A12" s="5"/>
-      <c r="B12" s="9" t="s">
+      <c r="A12" s="2"/>
+      <c r="B12" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="C12" s="5" t="s">
+      <c r="C12" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="D12" s="2"/>
+      <c r="D12" s="1"/>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A13" s="6" t="s">
+      <c r="A13" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="B13" s="9">
+      <c r="B13" s="8">
         <f>SUM(B14:B20)</f>
         <v>12</v>
       </c>
@@ -693,10 +703,10 @@
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A14" s="6" t="s">
+      <c r="A14" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="B14" s="9">
+      <c r="B14" s="8">
         <v>1</v>
       </c>
       <c r="C14" s="10">
@@ -704,10 +714,10 @@
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A15" s="5" t="s">
+      <c r="A15" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="B15" s="9">
+      <c r="B15" s="8">
         <v>1</v>
       </c>
       <c r="C15" s="10">
@@ -715,10 +725,10 @@
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A16" s="5" t="s">
+      <c r="A16" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="B16" s="9">
+      <c r="B16" s="8">
         <v>1</v>
       </c>
       <c r="C16" s="10">
@@ -726,10 +736,10 @@
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A17" s="5" t="s">
+      <c r="A17" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="B17" s="9">
+      <c r="B17" s="8">
         <v>1</v>
       </c>
       <c r="C17" s="10">
@@ -737,10 +747,10 @@
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A18" s="5" t="s">
+      <c r="A18" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="B18" s="9">
+      <c r="B18" s="8">
         <v>3</v>
       </c>
       <c r="C18" s="10">
@@ -748,10 +758,10 @@
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A19" s="5" t="s">
+      <c r="A19" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="B19" s="9">
+      <c r="B19" s="8">
         <v>2</v>
       </c>
       <c r="C19" s="10">
@@ -759,10 +769,10 @@
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A20" s="5" t="s">
+      <c r="A20" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="B20" s="9">
+      <c r="B20" s="8">
         <v>3</v>
       </c>
       <c r="C20" s="10">
@@ -770,28 +780,28 @@
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A21" s="6"/>
-      <c r="B21" s="9"/>
+      <c r="A21" s="3"/>
+      <c r="B21" s="8"/>
       <c r="C21" s="10"/>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A22" s="6" t="s">
+      <c r="A22" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="B22" s="9">
+      <c r="B22" s="8">
         <f>SUM(B23:B32)</f>
         <v>17</v>
       </c>
       <c r="C22" s="10">
         <f>SUM(C23:C32)</f>
-        <v>17</v>
+        <v>14</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A23" s="5" t="s">
+      <c r="A23" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B23" s="9">
+      <c r="B23" s="8">
         <v>1</v>
       </c>
       <c r="C23" s="10">
@@ -799,10 +809,10 @@
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A24" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="B24" s="9">
+      <c r="A24" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B24" s="8">
         <v>1</v>
       </c>
       <c r="C24" s="10">
@@ -810,10 +820,10 @@
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A25" s="5" t="s">
+      <c r="A25" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B25" s="9">
+      <c r="B25" s="8">
         <v>1</v>
       </c>
       <c r="C25" s="10">
@@ -821,10 +831,10 @@
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A26" s="5" t="s">
+      <c r="A26" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B26" s="9">
+      <c r="B26" s="8">
         <v>1</v>
       </c>
       <c r="C26" s="10">
@@ -832,21 +842,19 @@
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A27" s="5" t="s">
+      <c r="A27" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="B27" s="9">
-        <v>1</v>
-      </c>
-      <c r="C27" s="10">
-        <v>1</v>
-      </c>
+      <c r="B27" s="8">
+        <v>1</v>
+      </c>
+      <c r="C27" s="10"/>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A28" s="5" t="s">
+      <c r="A28" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B28" s="9">
+      <c r="B28" s="8">
         <v>2</v>
       </c>
       <c r="C28" s="10">
@@ -854,10 +862,10 @@
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A29" s="5" t="s">
+      <c r="A29" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B29" s="9">
+      <c r="B29" s="8">
         <v>2</v>
       </c>
       <c r="C29" s="10">
@@ -865,21 +873,19 @@
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A30" s="5" t="s">
+      <c r="A30" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="B30" s="9">
+      <c r="B30" s="8">
         <v>2</v>
       </c>
-      <c r="C30" s="10">
-        <v>2</v>
-      </c>
+      <c r="C30" s="10"/>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A31" s="5" t="s">
+      <c r="A31" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B31" s="9">
+      <c r="B31" s="8">
         <v>3</v>
       </c>
       <c r="C31" s="10">
@@ -887,10 +893,10 @@
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A32" s="5" t="s">
+      <c r="A32" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B32" s="9">
+      <c r="B32" s="8">
         <v>3</v>
       </c>
       <c r="C32" s="10">
@@ -898,39 +904,39 @@
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A33" s="5"/>
-      <c r="B33" s="9"/>
+      <c r="A33" s="2"/>
+      <c r="B33" s="8"/>
       <c r="C33" s="10"/>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A34" s="6" t="s">
+      <c r="A34" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B34" s="9">
+      <c r="B34" s="8">
         <f>SUM(B35:B38)</f>
         <v>16</v>
       </c>
       <c r="C34" s="10">
         <f>SUM(C35:C38)</f>
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A35" s="5" t="s">
+      <c r="A35" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B35" s="9">
+      <c r="B35" s="8">
         <v>4</v>
       </c>
       <c r="C35" s="10">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A36" s="5" t="s">
+      <c r="A36" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B36" s="9">
+      <c r="B36" s="8">
         <v>4</v>
       </c>
       <c r="C36" s="10">
@@ -938,10 +944,10 @@
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A37" s="5" t="s">
+      <c r="A37" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B37" s="9">
+      <c r="B37" s="8">
         <v>4</v>
       </c>
       <c r="C37" s="10">
@@ -949,10 +955,10 @@
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A38" s="5" t="s">
+      <c r="A38" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="B38" s="9">
+      <c r="B38" s="8">
         <v>4</v>
       </c>
       <c r="C38" s="10">
@@ -960,15 +966,15 @@
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A39" s="5"/>
-      <c r="B39" s="9"/>
+      <c r="A39" s="2"/>
+      <c r="B39" s="8"/>
       <c r="C39" s="10"/>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A40" s="6" t="s">
+      <c r="A40" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="B40" s="9">
+      <c r="B40" s="8">
         <f>SUM(B41:B45)</f>
         <v>18</v>
       </c>
@@ -978,10 +984,10 @@
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A41" s="5" t="s">
+      <c r="A41" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B41" s="9">
+      <c r="B41" s="8">
         <v>3</v>
       </c>
       <c r="C41" s="10">
@@ -989,10 +995,10 @@
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A42" s="5" t="s">
+      <c r="A42" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B42" s="9">
+      <c r="B42" s="8">
         <f>SUM(B43:B44)</f>
         <v>6</v>
       </c>
@@ -1002,10 +1008,10 @@
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A43" s="7" t="s">
+      <c r="A43" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="B43" s="9">
+      <c r="B43" s="8">
         <v>3</v>
       </c>
       <c r="C43" s="10">
@@ -1013,10 +1019,10 @@
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A44" s="7" t="s">
+      <c r="A44" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="B44" s="9">
+      <c r="B44" s="8">
         <v>3</v>
       </c>
       <c r="C44" s="10">
@@ -1024,10 +1030,10 @@
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A45" s="8" t="s">
+      <c r="A45" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="B45" s="9">
+      <c r="B45" s="8">
         <v>3</v>
       </c>
       <c r="C45" s="10">
@@ -1035,50 +1041,50 @@
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A46" s="5"/>
-      <c r="B46" s="9"/>
+      <c r="A46" s="2"/>
+      <c r="B46" s="8"/>
       <c r="C46" s="10"/>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A47" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="B47" s="9">
+      <c r="A47" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B47" s="8">
         <f>SUM(B48:B52)</f>
         <v>21</v>
       </c>
       <c r="C47" s="10">
         <f>SUM(C48:C52)</f>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A48" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B48" s="8">
+        <v>3</v>
+      </c>
+      <c r="C48" s="10">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A49" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B49" s="8">
+        <v>3</v>
+      </c>
+      <c r="C49" s="10">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A50" s="2" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A48" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="B48" s="9">
-        <v>3</v>
-      </c>
-      <c r="C48" s="10">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A49" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="B49" s="9">
-        <v>3</v>
-      </c>
-      <c r="C49" s="10">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A50" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="B50" s="9">
+      <c r="B50" s="8">
         <v>5</v>
       </c>
       <c r="C50" s="10">
@@ -1086,10 +1092,10 @@
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A51" s="5" t="s">
+      <c r="A51" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="B51" s="9">
+      <c r="B51" s="8">
         <v>5</v>
       </c>
       <c r="C51" s="10">
@@ -1097,48 +1103,51 @@
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A52" s="5" t="s">
+      <c r="A52" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="B52" s="9">
+      <c r="B52" s="8">
         <v>5</v>
       </c>
       <c r="C52" s="10">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A53" s="5"/>
-      <c r="B53" s="9"/>
+      <c r="A53" s="2"/>
+      <c r="B53" s="8"/>
       <c r="C53" s="10"/>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A54" s="5" t="s">
+      <c r="A54" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="B54" s="9">
+      <c r="B54" s="8">
         <f>SUM(B47,B40,B34,B22,B13)</f>
         <v>84</v>
       </c>
       <c r="C54" s="10">
         <f>SUM(C47,C40,C34,C22,C13)</f>
-        <v>84</v>
+        <v>79</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A55" s="5" t="s">
+      <c r="A55" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="B55" s="9">
+      <c r="B55" s="8">
         <f>B54/$B$54*5</f>
         <v>5</v>
       </c>
       <c r="C55" s="10">
         <f>C54/$B$54*5</f>
-        <v>5</v>
+        <v>4.7023809523809526</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B6" r:id="rId1" xr:uid="{E51681E0-829D-4414-832B-66AD54888402}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>